--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -670,6 +670,15 @@
   </si>
   <si>
     <t>MJ9844</t>
+  </si>
+  <si>
+    <t>phone Case Type</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>luminous</t>
   </si>
 </sst>
 </file>
@@ -1485,31 +1494,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="67.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="67.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -1517,1359 +1526,1452 @@
         <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43713</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>331038</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>98515422</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>9.5</v>
       </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
       <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43713</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>85713</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>9.5</v>
       </c>
-      <c r="M3" s="1">
-        <v>5</v>
-      </c>
       <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43713</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>13332</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>3158251145</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>9.5</v>
       </c>
-      <c r="M4" s="1">
-        <v>5</v>
-      </c>
       <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43713</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>74017</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>9.5</v>
       </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
       <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43713</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>33837</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>9.5</v>
       </c>
-      <c r="M6" s="1">
-        <v>5</v>
-      </c>
       <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43712</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>9.5</v>
       </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
       <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43712</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>38243</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>761605215</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>10.1</v>
       </c>
-      <c r="M8" s="1">
-        <v>5</v>
-      </c>
       <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43712</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>10.1</v>
       </c>
-      <c r="M9" s="1">
-        <v>5</v>
-      </c>
       <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43712</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>70601</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>10.1</v>
       </c>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
       <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43712</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>75009</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>4692313713</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>10.1</v>
       </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
       <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43712</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>79549</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>10.1</v>
       </c>
-      <c r="M12" s="1">
-        <v>5</v>
-      </c>
       <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43712</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>76133</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>9.5</v>
       </c>
-      <c r="M13" s="1">
-        <v>5</v>
-      </c>
       <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43712</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>8260</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>9.5</v>
       </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43712</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>80249</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>9.5</v>
       </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
       <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43712</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>23035</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>9.5</v>
       </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
       <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43712</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>84776</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>9.5</v>
       </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
       <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43712</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>2491400</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>9.5</v>
       </c>
-      <c r="M18" s="1">
-        <v>5</v>
-      </c>
       <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43712</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>24501</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>9.5</v>
       </c>
-      <c r="M19" s="1">
-        <v>5</v>
-      </c>
       <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43712</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>60408</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>7794354950</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>9.5</v>
       </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
       <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43712</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>16001</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>9.5</v>
       </c>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
       <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43712</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>8204</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>9.5</v>
       </c>
-      <c r="M22" s="1">
-        <v>5</v>
-      </c>
       <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43712</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>33428</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>10.1</v>
       </c>
-      <c r="M23" s="1">
-        <v>5</v>
-      </c>
       <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43712</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>91306</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>8183262941</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>10.1</v>
       </c>
-      <c r="M24" s="1">
-        <v>5</v>
-      </c>
       <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43707</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>17578</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>10.1</v>
       </c>
-      <c r="M25" s="1">
-        <v>5</v>
-      </c>
       <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43707</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>60516</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>6309910253</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>10.1</v>
       </c>
-      <c r="M26" s="1">
-        <v>5</v>
-      </c>
       <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43707</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>10.1</v>
       </c>
-      <c r="M27" s="1">
-        <v>5</v>
-      </c>
       <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43707</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>53963</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>10.1</v>
       </c>
-      <c r="M28" s="1">
-        <v>5</v>
-      </c>
       <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43707</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>33774</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>10.1</v>
       </c>
-      <c r="M29" s="1">
-        <v>5</v>
-      </c>
       <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43707</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>44006</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>99752868</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>10.1</v>
       </c>
-      <c r="M30" s="1">
-        <v>5</v>
-      </c>
       <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43707</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>60073</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>10.1</v>
       </c>
-      <c r="M31" s="1">
-        <v>5</v>
-      </c>
       <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>175</v>
       </c>
     </row>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="orders_export_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -672,19 +667,19 @@
     <t>MJ9844</t>
   </si>
   <si>
-    <t>phone Case Type</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
     <t>luminous</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1274,7 +1269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1309,7 +1304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1486,7 +1481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,23 +1491,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="67.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
@@ -1526,7 +1522,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1576,7 +1572,7 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>187</v>
@@ -1620,7 +1616,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>188</v>
@@ -1667,7 +1663,7 @@
         <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>189</v>
@@ -1714,7 +1710,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>190</v>
@@ -1761,7 +1757,7 @@
         <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>191</v>
@@ -1808,7 +1804,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>192</v>
@@ -1852,7 +1848,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>193</v>
@@ -1896,7 +1892,7 @@
         <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>194</v>
@@ -1943,7 +1939,7 @@
         <v>185</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>195</v>
@@ -1993,7 +1989,7 @@
         <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>196</v>
@@ -2040,7 +2036,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>197</v>
@@ -2087,7 +2083,7 @@
         <v>185</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>198</v>
@@ -2134,7 +2130,7 @@
         <v>185</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>199</v>
@@ -2181,7 +2177,7 @@
         <v>185</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>200</v>
@@ -2228,7 +2224,7 @@
         <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>201</v>
@@ -2275,7 +2271,7 @@
         <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>202</v>
@@ -2325,7 +2321,7 @@
         <v>186</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>203</v>
@@ -2369,7 +2365,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>204</v>
@@ -2419,7 +2415,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>205</v>
@@ -2466,7 +2462,7 @@
         <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>206</v>
@@ -2513,7 +2509,7 @@
         <v>186</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>207</v>
@@ -2560,7 +2556,7 @@
         <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>208</v>
@@ -2607,7 +2603,7 @@
         <v>186</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>209</v>
@@ -2654,7 +2650,7 @@
         <v>186</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>210</v>
@@ -2701,7 +2697,7 @@
         <v>186</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>211</v>
@@ -2751,7 +2747,7 @@
         <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>212</v>
@@ -2795,7 +2791,7 @@
         <v>186</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>213</v>
@@ -2842,7 +2838,7 @@
         <v>186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>214</v>
@@ -2889,7 +2885,7 @@
         <v>186</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>215</v>
@@ -2936,7 +2932,7 @@
         <v>186</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>216</v>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -673,7 +673,10 @@
     <t>luminous</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>phone Case Type</t>
+  </si>
+  <si>
+    <t>MJ9858</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,6 +2974,1413 @@
         <v>175</v>
       </c>
     </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>331038</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1">
+        <v>98515422</v>
+      </c>
+      <c r="M32" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1">
+        <v>85713</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="1">
+        <v>13332</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3158251145</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="1">
+        <v>74017</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="1">
+        <v>33837</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43347</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43347</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1">
+        <v>38243</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="1">
+        <v>761605215</v>
+      </c>
+      <c r="M38" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>43348</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43349</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="1">
+        <v>70601</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>5</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>43350</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="1">
+        <v>75009</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4692313713</v>
+      </c>
+      <c r="M41" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>43351</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="1">
+        <v>79549</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43352</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="1">
+        <v>76133</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43353</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="1">
+        <v>8260</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="1">
+        <v>80249</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43355</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="1">
+        <v>23035</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M46" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43356</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="1">
+        <v>84776</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M47" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43357</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2491400</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43358</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="1">
+        <v>24501</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43359</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="1">
+        <v>60408</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="1">
+        <v>7794354950</v>
+      </c>
+      <c r="M50" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43360</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" s="1">
+        <v>16001</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M51" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43361</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="1">
+        <v>8204</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43362</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="1">
+        <v>33428</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43363</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="1">
+        <v>91306</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="1">
+        <v>8183262941</v>
+      </c>
+      <c r="M54" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>43364</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="1">
+        <v>17578</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43365</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="1">
+        <v>60516</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="1">
+        <v>6309910253</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43366</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M57" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43367</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" s="1">
+        <v>53963</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43368</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="1">
+        <v>33774</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M59" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43369</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44006</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L60" s="1">
+        <v>99752868</v>
+      </c>
+      <c r="M60" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43370</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="1">
+        <v>60073</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M61" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="280" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -674,15 +679,12 @@
   </si>
   <si>
     <t>phone Case Type</t>
-  </si>
-  <si>
-    <t>MJ9858</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1484,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1571,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43713</v>
+        <v>43707</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>184</v>
@@ -1578,7 +1580,7 @@
         <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -1613,7 +1615,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43713</v>
+        <v>43708</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>184</v>
@@ -1622,7 +1624,7 @@
         <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -1660,7 +1662,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43713</v>
+        <v>43709</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>184</v>
@@ -1669,7 +1671,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -1707,16 +1709,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43713</v>
+        <v>43710</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>184</v>
@@ -1763,7 +1765,7 @@
         <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -1810,7 +1812,7 @@
         <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
@@ -1851,7 +1853,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>193</v>
@@ -1889,40 +1891,37 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>331038</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="L9" s="1">
+        <v>98515422</v>
       </c>
       <c r="M9" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N9" s="1">
         <v>5</v>
@@ -1931,48 +1930,45 @@
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1">
-        <v>70601</v>
+        <v>85713</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="M10" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N10" s="1">
         <v>5</v>
@@ -1981,45 +1977,45 @@
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1">
-        <v>75009</v>
+        <v>13332</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="1">
-        <v>4692313713</v>
+        <v>3158251145</v>
       </c>
       <c r="M11" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N11" s="1">
         <v>5</v>
@@ -2028,45 +2024,45 @@
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1">
-        <v>79549</v>
+        <v>74017</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N12" s="1">
         <v>5</v>
@@ -2075,42 +2071,42 @@
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1">
-        <v>76133</v>
+        <v>33837</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1">
         <v>9.5</v>
@@ -2122,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2130,34 +2126,31 @@
         <v>43712</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8260</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="M14" s="1">
         <v>9.5</v>
@@ -2169,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2183,31 +2176,28 @@
         <v>217</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1">
-        <v>80249</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>38243</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="L15" s="1">
+        <v>761605215</v>
       </c>
       <c r="M15" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N15" s="1">
         <v>5</v>
@@ -2216,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2224,37 +2214,37 @@
         <v>43712</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="1">
-        <v>23035</v>
+        <v>55</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
@@ -2263,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2271,40 +2261,40 @@
         <v>43712</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1">
-        <v>84776</v>
+        <v>70601</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M17" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N17" s="1">
         <v>5</v>
@@ -2313,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2321,34 +2311,37 @@
         <v>43712</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I18" s="1">
-        <v>2491400</v>
+        <v>75009</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4692313713</v>
       </c>
       <c r="M18" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N18" s="1">
         <v>5</v>
@@ -2357,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2365,40 +2358,37 @@
         <v>43712</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I19" s="1">
-        <v>24501</v>
+        <v>79549</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N19" s="1">
         <v>5</v>
@@ -2407,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2415,34 +2405,34 @@
         <v>43712</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1">
-        <v>60408</v>
+        <v>76133</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="1">
-        <v>7794354950</v>
+      <c r="L20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M20" s="1">
         <v>9.5</v>
@@ -2454,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2462,34 +2452,34 @@
         <v>43712</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1">
-        <v>16001</v>
+        <v>8260</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="M21" s="1">
         <v>9.5</v>
@@ -2501,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2509,34 +2499,34 @@
         <v>43712</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1">
-        <v>8204</v>
+        <v>80249</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="M22" s="1">
         <v>9.5</v>
@@ -2548,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2559,34 +2549,34 @@
         <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I23" s="1">
-        <v>33428</v>
+        <v>23035</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="M23" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N23" s="1">
         <v>5</v>
@@ -2595,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2609,31 +2599,34 @@
         <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="I24" s="1">
-        <v>91306</v>
+        <v>84776</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="1">
-        <v>8183262941</v>
+      <c r="L24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M24" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N24" s="1">
         <v>5</v>
@@ -2642,12 +2635,12 @@
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>186</v>
@@ -2656,31 +2649,28 @@
         <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I25" s="1">
-        <v>17578</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>126</v>
+        <v>2491400</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="M25" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N25" s="1">
         <v>5</v>
@@ -2689,12 +2679,12 @@
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>186</v>
@@ -2703,34 +2693,34 @@
         <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1">
-        <v>60516</v>
+        <v>24501</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="1">
-        <v>6309910253</v>
+      <c r="L26" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="M26" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N26" s="1">
         <v>5</v>
@@ -2739,12 +2729,12 @@
         <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>186</v>
@@ -2753,28 +2743,31 @@
         <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="I27" s="1">
+        <v>60408</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="L27" s="1">
+        <v>7794354950</v>
       </c>
       <c r="M27" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N27" s="1">
         <v>5</v>
@@ -2783,12 +2776,12 @@
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>186</v>
@@ -2797,31 +2790,31 @@
         <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="I28" s="1">
-        <v>53963</v>
+        <v>16001</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="M28" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N28" s="1">
         <v>5</v>
@@ -2830,12 +2823,12 @@
         <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>186</v>
@@ -2844,31 +2837,31 @@
         <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="I29" s="1">
-        <v>33774</v>
+        <v>8204</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="M29" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N29" s="1">
         <v>5</v>
@@ -2877,12 +2870,12 @@
         <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>186</v>
@@ -2891,28 +2884,28 @@
         <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="I30" s="1">
-        <v>44006</v>
+        <v>33428</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L30" s="1">
-        <v>99752868</v>
+        <v>21</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M30" s="1">
         <v>10.1</v>
@@ -2924,12 +2917,12 @@
         <v>1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43707</v>
+        <v>43712</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>186</v>
@@ -2938,28 +2931,28 @@
         <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1">
-        <v>60073</v>
+        <v>91306</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>179</v>
+      <c r="L31" s="1">
+        <v>8183262941</v>
       </c>
       <c r="M31" s="1">
         <v>10.1</v>
@@ -2971,42 +2964,45 @@
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43348</v>
+        <v>43707</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="I32" s="1">
-        <v>331038</v>
+        <v>17578</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="1">
-        <v>98515422</v>
+        <v>21</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="M32" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N32" s="1">
         <v>5</v>
@@ -3015,45 +3011,48 @@
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43348</v>
+        <v>43707</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="I33" s="1">
-        <v>85713</v>
+        <v>60516</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>22</v>
+      <c r="L33" s="1">
+        <v>6309910253</v>
       </c>
       <c r="M33" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N33" s="1">
         <v>5</v>
@@ -3062,45 +3061,42 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43348</v>
+        <v>43707</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="1">
-        <v>13332</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="1">
-        <v>3158251145</v>
+        <v>45</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="M34" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N34" s="1">
         <v>5</v>
@@ -3109,45 +3105,45 @@
         <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43348</v>
+        <v>43707</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="I35" s="1">
-        <v>74017</v>
+        <v>53963</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="M35" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N35" s="1">
         <v>5</v>
@@ -3156,33 +3152,33 @@
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43348</v>
+        <v>43707</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="I36" s="1">
-        <v>33837</v>
+        <v>33774</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>38</v>
@@ -3191,10 +3187,10 @@
         <v>21</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="M36" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N36" s="1">
         <v>5</v>
@@ -3203,42 +3199,45 @@
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>43347</v>
+        <v>43707</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>171</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>44</v>
+        <v>173</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44006</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>46</v>
+        <v>174</v>
+      </c>
+      <c r="L37" s="1">
+        <v>99752868</v>
       </c>
       <c r="M37" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N37" s="1">
         <v>5</v>
@@ -3247,39 +3246,42 @@
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43347</v>
+        <v>43707</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="I38" s="1">
-        <v>38243</v>
+        <v>60073</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="1">
-        <v>761605215</v>
+        <v>21</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="M38" s="1">
         <v>10.1</v>
@@ -3291,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3299,37 +3301,34 @@
         <v>43348</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="I39" s="1">
+        <v>331038</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="L39" s="1">
+        <v>98515422</v>
       </c>
       <c r="M39" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N39" s="1">
         <v>5</v>
@@ -3338,48 +3337,45 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>43349</v>
+        <v>43348</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="I40" s="1">
-        <v>70601</v>
+        <v>85713</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="M40" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N40" s="1">
         <v>5</v>
@@ -3388,45 +3384,45 @@
         <v>1</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>43350</v>
+        <v>43348</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I41" s="1">
-        <v>75009</v>
+        <v>13332</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="1">
-        <v>4692313713</v>
+        <v>3158251145</v>
       </c>
       <c r="M41" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N41" s="1">
         <v>5</v>
@@ -3435,45 +3431,45 @@
         <v>1</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43351</v>
+        <v>43348</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I42" s="1">
-        <v>79549</v>
+        <v>74017</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M42" s="1">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="N42" s="1">
         <v>5</v>
@@ -3482,42 +3478,42 @@
         <v>1</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43352</v>
+        <v>43348</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I43" s="1">
-        <v>76133</v>
+        <v>33837</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M43" s="1">
         <v>9.5</v>
@@ -3529,42 +3525,39 @@
         <v>1</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43353</v>
+        <v>43347</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="1">
-        <v>8260</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="M44" s="1">
         <v>9.5</v>
@@ -3576,12 +3569,12 @@
         <v>1</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43354</v>
+        <v>43347</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>185</v>
@@ -3590,31 +3583,28 @@
         <v>217</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1">
-        <v>80249</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>38243</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="L45" s="1">
+        <v>761605215</v>
       </c>
       <c r="M45" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N45" s="1">
         <v>5</v>
@@ -3623,45 +3613,45 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43355</v>
+        <v>43348</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="1">
-        <v>23035</v>
+        <v>55</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="M46" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N46" s="1">
         <v>5</v>
@@ -3670,48 +3660,48 @@
         <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43356</v>
+        <v>43349</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I47" s="1">
-        <v>84776</v>
+        <v>70601</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M47" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N47" s="1">
         <v>5</v>
@@ -3720,42 +3710,45 @@
         <v>1</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43357</v>
+        <v>43350</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I48" s="1">
-        <v>2491400</v>
+        <v>75009</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4692313713</v>
       </c>
       <c r="M48" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N48" s="1">
         <v>5</v>
@@ -3764,48 +3757,45 @@
         <v>1</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43358</v>
+        <v>43351</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I49" s="1">
-        <v>24501</v>
+        <v>79549</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="M49" s="1">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="N49" s="1">
         <v>5</v>
@@ -3814,42 +3804,42 @@
         <v>1</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43359</v>
+        <v>43352</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="I50" s="1">
-        <v>60408</v>
+        <v>76133</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="1">
-        <v>7794354950</v>
+      <c r="L50" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M50" s="1">
         <v>9.5</v>
@@ -3861,42 +3851,42 @@
         <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>43360</v>
+        <v>43352</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="I51" s="1">
-        <v>16001</v>
+        <v>76133</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="M51" s="1">
         <v>9.5</v>
@@ -3908,477 +3898,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43361</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I52" s="1">
-        <v>8204</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M52" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="N52" s="1">
-        <v>5</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>43362</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="1">
-        <v>33428</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N53" s="1">
-        <v>5</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>43363</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I54" s="1">
-        <v>91306</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="1">
-        <v>8183262941</v>
-      </c>
-      <c r="M54" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N54" s="1">
-        <v>5</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>43364</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="1">
-        <v>17578</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M55" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N55" s="1">
-        <v>5</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>43365</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" s="1">
-        <v>60516</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="1">
-        <v>6309910253</v>
-      </c>
-      <c r="M56" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N56" s="1">
-        <v>5</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>43366</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M57" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N57" s="1">
-        <v>5</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>43367</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="1">
-        <v>53963</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M58" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>5</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>43368</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" s="1">
-        <v>33774</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M59" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N59" s="1">
-        <v>5</v>
-      </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>43369</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I60" s="1">
-        <v>44006</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L60" s="1">
-        <v>99752868</v>
-      </c>
-      <c r="M60" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N60" s="1">
-        <v>5</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>43370</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="1">
-        <v>60073</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M61" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="N61" s="1">
-        <v>5</v>
-      </c>
-      <c r="O61" s="1">
-        <v>1</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="272">
   <si>
     <t>Name</t>
   </si>
@@ -679,12 +674,168 @@
   </si>
   <si>
     <t>phone Case Type</t>
+  </si>
+  <si>
+    <t>MJ12</t>
+  </si>
+  <si>
+    <t>MJ13</t>
+  </si>
+  <si>
+    <t>MJ14</t>
+  </si>
+  <si>
+    <t>MJ15</t>
+  </si>
+  <si>
+    <t>MJ16</t>
+  </si>
+  <si>
+    <t>MJ17</t>
+  </si>
+  <si>
+    <t>MJ18</t>
+  </si>
+  <si>
+    <t>MJ19</t>
+  </si>
+  <si>
+    <t>MJ20</t>
+  </si>
+  <si>
+    <t>MJ21</t>
+  </si>
+  <si>
+    <t>MJ22</t>
+  </si>
+  <si>
+    <t>MJ23</t>
+  </si>
+  <si>
+    <t>MJ24</t>
+  </si>
+  <si>
+    <t>MJ25</t>
+  </si>
+  <si>
+    <t>MJ26</t>
+  </si>
+  <si>
+    <t>MJ27</t>
+  </si>
+  <si>
+    <t>MJ28</t>
+  </si>
+  <si>
+    <t>MJ29</t>
+  </si>
+  <si>
+    <t>MJ30</t>
+  </si>
+  <si>
+    <t>MJ31</t>
+  </si>
+  <si>
+    <t>MJ32</t>
+  </si>
+  <si>
+    <t>MJ33</t>
+  </si>
+  <si>
+    <t>MJ34</t>
+  </si>
+  <si>
+    <t>MJ35</t>
+  </si>
+  <si>
+    <t>MJ36</t>
+  </si>
+  <si>
+    <t>MJ37</t>
+  </si>
+  <si>
+    <t>MJ38</t>
+  </si>
+  <si>
+    <t>MJ39</t>
+  </si>
+  <si>
+    <t>MJ40</t>
+  </si>
+  <si>
+    <t>MJ41</t>
+  </si>
+  <si>
+    <t>MJ42</t>
+  </si>
+  <si>
+    <t>MJ43</t>
+  </si>
+  <si>
+    <t>MJ44</t>
+  </si>
+  <si>
+    <t>MJ45</t>
+  </si>
+  <si>
+    <t>MJ46</t>
+  </si>
+  <si>
+    <t>MJ47</t>
+  </si>
+  <si>
+    <t>MJ48</t>
+  </si>
+  <si>
+    <t>MJ49</t>
+  </si>
+  <si>
+    <t>MJ50</t>
+  </si>
+  <si>
+    <t>MJ51</t>
+  </si>
+  <si>
+    <t>MJ52</t>
+  </si>
+  <si>
+    <t>MJ53</t>
+  </si>
+  <si>
+    <t>MJ54</t>
+  </si>
+  <si>
+    <t>MJ55</t>
+  </si>
+  <si>
+    <t>MJ56</t>
+  </si>
+  <si>
+    <t>MJ57</t>
+  </si>
+  <si>
+    <t>MJ58</t>
+  </si>
+  <si>
+    <t>MJ59</t>
+  </si>
+  <si>
+    <t>MJ60</t>
+  </si>
+  <si>
+    <t>MJ61</t>
+  </si>
+  <si>
+    <t>ahieu</t>
+  </si>
+  <si>
+    <t>anam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1486,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1494,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1954,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
@@ -3898,6 +4049,2338 @@
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1">
+        <v>331038</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="1">
+        <v>98515422</v>
+      </c>
+      <c r="M52" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43647</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="1">
+        <v>85713</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43648</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="1">
+        <v>13332</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3158251145</v>
+      </c>
+      <c r="M54" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>43649</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="1">
+        <v>74017</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43650</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="1">
+        <v>33837</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43652</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="1">
+        <v>38243</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="1">
+        <v>761605215</v>
+      </c>
+      <c r="M58" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43653</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1">
+        <v>331038</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="1">
+        <v>98515422</v>
+      </c>
+      <c r="M59" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43654</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="1">
+        <v>85713</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43655</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="1">
+        <v>13332</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3158251145</v>
+      </c>
+      <c r="M61" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>43656</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="1">
+        <v>74017</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N62" s="1">
+        <v>5</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43657</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="1">
+        <v>33837</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N63" s="1">
+        <v>5</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>43658</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="1">
+        <v>38243</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" s="1">
+        <v>761605215</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43660</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M66" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="1">
+        <v>70601</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43662</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="1">
+        <v>75009</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4692313713</v>
+      </c>
+      <c r="M68" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="1">
+        <v>79549</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>43664</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="1">
+        <v>76133</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M70" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N70" s="1">
+        <v>5</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="1">
+        <v>8260</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M71" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>43666</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="1">
+        <v>80249</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M72" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N72" s="1">
+        <v>5</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43667</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I73" s="1">
+        <v>23035</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M73" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N73" s="1">
+        <v>5</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>43668</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="1">
+        <v>84776</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M74" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N74" s="1">
+        <v>5</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2491400</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N75" s="1">
+        <v>5</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>43670</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" s="1">
+        <v>24501</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M76" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" s="1">
+        <v>60408</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="1">
+        <v>7794354950</v>
+      </c>
+      <c r="M77" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N77" s="1">
+        <v>5</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43672</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="1">
+        <v>16001</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M78" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N78" s="1">
+        <v>5</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" s="1">
+        <v>8204</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M79" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N79" s="1">
+        <v>5</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>43674</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="1">
+        <v>33428</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M80" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>5</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" s="1">
+        <v>91306</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="1">
+        <v>8183262941</v>
+      </c>
+      <c r="M81" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N81" s="1">
+        <v>5</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>43676</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" s="1">
+        <v>17578</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M82" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>5</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="1">
+        <v>60516</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83" s="1">
+        <v>6309910253</v>
+      </c>
+      <c r="M83" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>5</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>43678</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M84" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>5</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="1">
+        <v>53963</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>5</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43680</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I86" s="1">
+        <v>33774</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M86" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>5</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43681</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" s="1">
+        <v>44006</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L87" s="1">
+        <v>99752868</v>
+      </c>
+      <c r="M87" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N87" s="1">
+        <v>5</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43682</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I88" s="1">
+        <v>60073</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M88" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>5</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>43683</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1">
+        <v>331038</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="1">
+        <v>98515422</v>
+      </c>
+      <c r="M89" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N89" s="1">
+        <v>5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>43684</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="1">
+        <v>85713</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N90" s="1">
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43685</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="1">
+        <v>13332</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91" s="1">
+        <v>3158251145</v>
+      </c>
+      <c r="M91" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N91" s="1">
+        <v>5</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43686</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="1">
+        <v>74017</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M92" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N92" s="1">
+        <v>5</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>43687</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="1">
+        <v>33837</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M93" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N93" s="1">
+        <v>5</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43688</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M94" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N94" s="1">
+        <v>5</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>43689</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I95" s="1">
+        <v>38243</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L95" s="1">
+        <v>761605215</v>
+      </c>
+      <c r="M95" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>5</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M96" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N96" s="1">
+        <v>5</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43691</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G97" s="1">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I97" s="1">
+        <v>70601</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M97" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>5</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98" s="1">
+        <v>75009</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="1">
+        <v>4692313713</v>
+      </c>
+      <c r="M98" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>5</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99" s="1">
+        <v>79549</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M99" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>5</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>43694</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="1">
+        <v>76133</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M100" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N100" s="1">
+        <v>5</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>43695</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101" s="1">
+        <v>76133</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M101" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N101" s="1">
+        <v>5</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+      <c r="P101" s="1" t="s">
         <v>76</v>
       </c>
     </row>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -616,57 +616,6 @@
     <t>MJ9862</t>
   </si>
   <si>
-    <t>MJ9861</t>
-  </si>
-  <si>
-    <t>MJ9860</t>
-  </si>
-  <si>
-    <t>MJ9859</t>
-  </si>
-  <si>
-    <t>MJ9857</t>
-  </si>
-  <si>
-    <t>MJ9856</t>
-  </si>
-  <si>
-    <t>MJ9855</t>
-  </si>
-  <si>
-    <t>MJ9854</t>
-  </si>
-  <si>
-    <t>MJ9853</t>
-  </si>
-  <si>
-    <t>MJ9852</t>
-  </si>
-  <si>
-    <t>MJ9851</t>
-  </si>
-  <si>
-    <t>MJ9850</t>
-  </si>
-  <si>
-    <t>MJ9849</t>
-  </si>
-  <si>
-    <t>MJ9848</t>
-  </si>
-  <si>
-    <t>MJ9847</t>
-  </si>
-  <si>
-    <t>MJ9846</t>
-  </si>
-  <si>
-    <t>MJ9845</t>
-  </si>
-  <si>
-    <t>MJ9844</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
@@ -676,160 +625,271 @@
     <t>phone Case Type</t>
   </si>
   <si>
-    <t>MJ12</t>
-  </si>
-  <si>
-    <t>MJ13</t>
-  </si>
-  <si>
-    <t>MJ14</t>
-  </si>
-  <si>
-    <t>MJ15</t>
-  </si>
-  <si>
-    <t>MJ16</t>
-  </si>
-  <si>
-    <t>MJ17</t>
-  </si>
-  <si>
-    <t>MJ18</t>
-  </si>
-  <si>
-    <t>MJ19</t>
-  </si>
-  <si>
-    <t>MJ20</t>
-  </si>
-  <si>
-    <t>MJ21</t>
-  </si>
-  <si>
-    <t>MJ22</t>
-  </si>
-  <si>
-    <t>MJ23</t>
-  </si>
-  <si>
-    <t>MJ24</t>
-  </si>
-  <si>
-    <t>MJ25</t>
-  </si>
-  <si>
-    <t>MJ26</t>
-  </si>
-  <si>
-    <t>MJ27</t>
-  </si>
-  <si>
-    <t>MJ28</t>
-  </si>
-  <si>
-    <t>MJ29</t>
-  </si>
-  <si>
-    <t>MJ30</t>
-  </si>
-  <si>
-    <t>MJ31</t>
-  </si>
-  <si>
-    <t>MJ32</t>
-  </si>
-  <si>
-    <t>MJ33</t>
-  </si>
-  <si>
-    <t>MJ34</t>
-  </si>
-  <si>
-    <t>MJ35</t>
-  </si>
-  <si>
-    <t>MJ36</t>
-  </si>
-  <si>
-    <t>MJ37</t>
-  </si>
-  <si>
-    <t>MJ38</t>
-  </si>
-  <si>
-    <t>MJ39</t>
-  </si>
-  <si>
-    <t>MJ40</t>
-  </si>
-  <si>
-    <t>MJ41</t>
-  </si>
-  <si>
-    <t>MJ42</t>
-  </si>
-  <si>
-    <t>MJ43</t>
-  </si>
-  <si>
-    <t>MJ44</t>
-  </si>
-  <si>
-    <t>MJ45</t>
-  </si>
-  <si>
-    <t>MJ46</t>
-  </si>
-  <si>
-    <t>MJ47</t>
-  </si>
-  <si>
-    <t>MJ48</t>
-  </si>
-  <si>
-    <t>MJ49</t>
-  </si>
-  <si>
-    <t>MJ50</t>
-  </si>
-  <si>
-    <t>MJ51</t>
-  </si>
-  <si>
-    <t>MJ52</t>
-  </si>
-  <si>
-    <t>MJ53</t>
-  </si>
-  <si>
-    <t>MJ54</t>
-  </si>
-  <si>
-    <t>MJ55</t>
-  </si>
-  <si>
-    <t>MJ56</t>
-  </si>
-  <si>
-    <t>MJ57</t>
-  </si>
-  <si>
-    <t>MJ58</t>
-  </si>
-  <si>
-    <t>MJ59</t>
-  </si>
-  <si>
-    <t>MJ60</t>
-  </si>
-  <si>
-    <t>MJ61</t>
-  </si>
-  <si>
     <t>ahieu</t>
   </si>
   <si>
     <t>anam</t>
+  </si>
+  <si>
+    <t>MJ9875</t>
+  </si>
+  <si>
+    <t>MJ9876</t>
+  </si>
+  <si>
+    <t>MJ9877</t>
+  </si>
+  <si>
+    <t>MJ9878</t>
+  </si>
+  <si>
+    <t>MJ9879</t>
+  </si>
+  <si>
+    <t>MJ9880</t>
+  </si>
+  <si>
+    <t>MJ9881</t>
+  </si>
+  <si>
+    <t>MJ9882</t>
+  </si>
+  <si>
+    <t>MJ9883</t>
+  </si>
+  <si>
+    <t>MJ9884</t>
+  </si>
+  <si>
+    <t>MJ9885</t>
+  </si>
+  <si>
+    <t>MJ9886</t>
+  </si>
+  <si>
+    <t>MJ9887</t>
+  </si>
+  <si>
+    <t>MJ9888</t>
+  </si>
+  <si>
+    <t>MJ9889</t>
+  </si>
+  <si>
+    <t>MJ9890</t>
+  </si>
+  <si>
+    <t>MJ9891</t>
+  </si>
+  <si>
+    <t>MJ9892</t>
+  </si>
+  <si>
+    <t>MJ9893</t>
+  </si>
+  <si>
+    <t>MJ9894</t>
+  </si>
+  <si>
+    <t>MJ9895</t>
+  </si>
+  <si>
+    <t>MJ9896</t>
+  </si>
+  <si>
+    <t>MJ9897</t>
+  </si>
+  <si>
+    <t>MJ9898</t>
+  </si>
+  <si>
+    <t>MJ9899</t>
+  </si>
+  <si>
+    <t>MJ9900</t>
+  </si>
+  <si>
+    <t>MJ9901</t>
+  </si>
+  <si>
+    <t>MJ9902</t>
+  </si>
+  <si>
+    <t>MJ9903</t>
+  </si>
+  <si>
+    <t>MJ9904</t>
+  </si>
+  <si>
+    <t>MJ9905</t>
+  </si>
+  <si>
+    <t>MJ9906</t>
+  </si>
+  <si>
+    <t>MJ9907</t>
+  </si>
+  <si>
+    <t>MJ9908</t>
+  </si>
+  <si>
+    <t>MJ9909</t>
+  </si>
+  <si>
+    <t>MJ9910</t>
+  </si>
+  <si>
+    <t>MJ9911</t>
+  </si>
+  <si>
+    <t>MJ9912</t>
+  </si>
+  <si>
+    <t>MJ9913</t>
+  </si>
+  <si>
+    <t>MJ9914</t>
+  </si>
+  <si>
+    <t>MJ9915</t>
+  </si>
+  <si>
+    <t>MJ9916</t>
+  </si>
+  <si>
+    <t>MJ9917</t>
+  </si>
+  <si>
+    <t>MJ9918</t>
+  </si>
+  <si>
+    <t>MJ9919</t>
+  </si>
+  <si>
+    <t>MJ9920</t>
+  </si>
+  <si>
+    <t>MJ9921</t>
+  </si>
+  <si>
+    <t>MJ9922</t>
+  </si>
+  <si>
+    <t>MJ9923</t>
+  </si>
+  <si>
+    <t>MJ9924</t>
+  </si>
+  <si>
+    <t>MJ9925</t>
+  </si>
+  <si>
+    <t>MJ9926</t>
+  </si>
+  <si>
+    <t>MJ9927</t>
+  </si>
+  <si>
+    <t>MJ9928</t>
+  </si>
+  <si>
+    <t>MJ9929</t>
+  </si>
+  <si>
+    <t>MJ9930</t>
+  </si>
+  <si>
+    <t>MJ9931</t>
+  </si>
+  <si>
+    <t>MJ9932</t>
+  </si>
+  <si>
+    <t>MJ9933</t>
+  </si>
+  <si>
+    <t>MJ9934</t>
+  </si>
+  <si>
+    <t>MJ9935</t>
+  </si>
+  <si>
+    <t>MJ9936</t>
+  </si>
+  <si>
+    <t>MJ9937</t>
+  </si>
+  <si>
+    <t>MJ9938</t>
+  </si>
+  <si>
+    <t>MJ9939</t>
+  </si>
+  <si>
+    <t>MJ9940</t>
+  </si>
+  <si>
+    <t>MJ9941</t>
+  </si>
+  <si>
+    <t>MJ9942</t>
+  </si>
+  <si>
+    <t>MJ9943</t>
+  </si>
+  <si>
+    <t>MJ9944</t>
+  </si>
+  <si>
+    <t>MJ9945</t>
+  </si>
+  <si>
+    <t>MJ9946</t>
+  </si>
+  <si>
+    <t>MJ9947</t>
+  </si>
+  <si>
+    <t>MJ9948</t>
+  </si>
+  <si>
+    <t>MJ9949</t>
+  </si>
+  <si>
+    <t>MJ9950</t>
+  </si>
+  <si>
+    <t>MJ9951</t>
+  </si>
+  <si>
+    <t>MJ9952</t>
+  </si>
+  <si>
+    <t>MJ9953</t>
+  </si>
+  <si>
+    <t>MJ9954</t>
+  </si>
+  <si>
+    <t>MJ9955</t>
+  </si>
+  <si>
+    <t>MJ9956</t>
+  </si>
+  <si>
+    <t>MJ9957</t>
+  </si>
+  <si>
+    <t>MJ9958</t>
+  </si>
+  <si>
+    <t>MJ9959</t>
+  </si>
+  <si>
+    <t>MJ9960</t>
+  </si>
+  <si>
+    <t>MJ9961</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,19 +1707,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="28" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
@@ -1678,7 +1738,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1728,7 +1788,7 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>199</v>
@@ -1772,7 +1832,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>198</v>
@@ -1819,7 +1879,7 @@
         <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>197</v>
@@ -1866,7 +1926,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>196</v>
@@ -1913,7 +1973,7 @@
         <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>195</v>
@@ -1960,7 +2020,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>194</v>
@@ -2004,7 +2064,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>193</v>
@@ -2048,10 +2108,10 @@
         <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -2092,10 +2152,10 @@
         <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -2139,10 +2199,10 @@
         <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -2186,10 +2246,10 @@
         <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -2233,10 +2293,10 @@
         <v>184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -2280,10 +2340,10 @@
         <v>184</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>41</v>
@@ -2324,10 +2384,10 @@
         <v>185</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -2368,10 +2428,10 @@
         <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>53</v>
@@ -2415,10 +2475,10 @@
         <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>61</v>
@@ -2465,10 +2525,10 @@
         <v>185</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>67</v>
@@ -2512,10 +2572,10 @@
         <v>185</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>72</v>
@@ -2559,10 +2619,10 @@
         <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>77</v>
@@ -2606,10 +2666,10 @@
         <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>82</v>
@@ -2653,10 +2713,10 @@
         <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>88</v>
@@ -2700,10 +2760,10 @@
         <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>94</v>
@@ -2747,10 +2807,10 @@
         <v>186</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>100</v>
@@ -2797,10 +2857,10 @@
         <v>186</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>107</v>
@@ -2841,10 +2901,10 @@
         <v>186</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>113</v>
@@ -2891,10 +2951,10 @@
         <v>186</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>119</v>
@@ -2938,10 +2998,10 @@
         <v>186</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>123</v>
@@ -2985,10 +3045,10 @@
         <v>186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>129</v>
@@ -3032,10 +3092,10 @@
         <v>186</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>134</v>
@@ -3079,10 +3139,10 @@
         <v>186</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>139</v>
@@ -3126,10 +3186,10 @@
         <v>186</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>143</v>
@@ -3173,10 +3233,10 @@
         <v>186</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>148</v>
@@ -3223,10 +3283,10 @@
         <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>153</v>
@@ -3267,10 +3327,10 @@
         <v>186</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>159</v>
@@ -3314,10 +3374,10 @@
         <v>186</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>165</v>
@@ -3361,10 +3421,10 @@
         <v>186</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>170</v>
@@ -3408,10 +3468,10 @@
         <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>176</v>
@@ -3455,10 +3515,10 @@
         <v>184</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -3499,10 +3559,10 @@
         <v>184</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
@@ -3546,10 +3606,10 @@
         <v>184</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
@@ -3593,10 +3653,10 @@
         <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>29</v>
@@ -3640,10 +3700,10 @@
         <v>184</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>35</v>
@@ -3687,10 +3747,10 @@
         <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>41</v>
@@ -3731,10 +3791,10 @@
         <v>185</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>48</v>
@@ -3775,10 +3835,10 @@
         <v>185</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>53</v>
@@ -3822,10 +3882,10 @@
         <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>61</v>
@@ -3872,10 +3932,10 @@
         <v>185</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>67</v>
@@ -3919,10 +3979,10 @@
         <v>185</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>72</v>
@@ -3966,10 +4026,10 @@
         <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>77</v>
@@ -4013,10 +4073,10 @@
         <v>185</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>77</v>
@@ -4060,10 +4120,10 @@
         <v>184</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -4104,10 +4164,10 @@
         <v>184</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>17</v>
@@ -4151,10 +4211,10 @@
         <v>184</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>24</v>
@@ -4198,10 +4258,10 @@
         <v>184</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>29</v>
@@ -4245,10 +4305,10 @@
         <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>35</v>
@@ -4292,10 +4352,10 @@
         <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>41</v>
@@ -4336,10 +4396,10 @@
         <v>185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>48</v>
@@ -4380,10 +4440,10 @@
         <v>184</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -4424,10 +4484,10 @@
         <v>184</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>17</v>
@@ -4471,10 +4531,10 @@
         <v>184</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>24</v>
@@ -4518,10 +4578,10 @@
         <v>184</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>29</v>
@@ -4562,13 +4622,13 @@
         <v>43657</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>35</v>
@@ -4609,13 +4669,13 @@
         <v>43658</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>41</v>
@@ -4653,13 +4713,13 @@
         <v>43659</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>48</v>
@@ -4697,13 +4757,13 @@
         <v>43660</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>53</v>
@@ -4744,13 +4804,13 @@
         <v>43661</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>61</v>
@@ -4794,13 +4854,13 @@
         <v>43662</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>67</v>
@@ -4841,13 +4901,13 @@
         <v>43663</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>72</v>
@@ -4888,13 +4948,13 @@
         <v>43664</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>77</v>
@@ -4935,13 +4995,13 @@
         <v>43665</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>82</v>
@@ -4982,13 +5042,13 @@
         <v>43666</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>88</v>
@@ -5029,13 +5089,13 @@
         <v>43667</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>94</v>
@@ -5076,13 +5136,13 @@
         <v>43668</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>100</v>
@@ -5126,13 +5186,13 @@
         <v>43669</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>107</v>
@@ -5170,13 +5230,13 @@
         <v>43670</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>113</v>
@@ -5220,13 +5280,13 @@
         <v>43671</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>119</v>
@@ -5270,10 +5330,10 @@
         <v>186</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>123</v>
@@ -5317,10 +5377,10 @@
         <v>186</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>129</v>
@@ -5364,10 +5424,10 @@
         <v>186</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>134</v>
@@ -5411,10 +5471,10 @@
         <v>186</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>139</v>
@@ -5458,10 +5518,10 @@
         <v>186</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>143</v>
@@ -5502,13 +5562,13 @@
         <v>43677</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>148</v>
@@ -5552,13 +5612,13 @@
         <v>43678</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>153</v>
@@ -5599,10 +5659,10 @@
         <v>186</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>159</v>
@@ -5646,10 +5706,10 @@
         <v>186</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>165</v>
@@ -5693,10 +5753,10 @@
         <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>170</v>
@@ -5740,10 +5800,10 @@
         <v>186</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>176</v>
@@ -5787,10 +5847,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
@@ -5831,10 +5891,10 @@
         <v>184</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>17</v>
@@ -5878,10 +5938,10 @@
         <v>184</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>24</v>
@@ -5925,10 +5985,10 @@
         <v>184</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>29</v>
@@ -5972,10 +6032,10 @@
         <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>35</v>
@@ -6019,10 +6079,10 @@
         <v>184</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>41</v>
@@ -6063,10 +6123,10 @@
         <v>185</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -6107,10 +6167,10 @@
         <v>185</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>53</v>
@@ -6154,10 +6214,10 @@
         <v>185</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>61</v>
@@ -6204,10 +6264,10 @@
         <v>185</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>67</v>
@@ -6251,10 +6311,10 @@
         <v>185</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>72</v>
@@ -6298,10 +6358,10 @@
         <v>185</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>77</v>
@@ -6345,10 +6405,10 @@
         <v>185</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>77</v>

--- a/ahieu.xlsx
+++ b/ahieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="230">
   <si>
     <t>Name</t>
   </si>
@@ -408,9 +408,6 @@
     <t>phone Case Type</t>
   </si>
   <si>
-    <t>mj0001</t>
-  </si>
-  <si>
     <t>mj0002</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>mj0030</t>
   </si>
   <si>
-    <t>phoneCase</t>
-  </si>
-  <si>
     <t xml:space="preserve"> iPhone X</t>
   </si>
   <si>
@@ -616,6 +610,105 @@
   </si>
   <si>
     <t>partner Type</t>
+  </si>
+  <si>
+    <t>tracking Number</t>
+  </si>
+  <si>
+    <t>pc1001</t>
+  </si>
+  <si>
+    <t>pc1005</t>
+  </si>
+  <si>
+    <t>pc1008</t>
+  </si>
+  <si>
+    <t>pc1009</t>
+  </si>
+  <si>
+    <t>pc1012</t>
+  </si>
+  <si>
+    <t>pc1016</t>
+  </si>
+  <si>
+    <t>pc1018</t>
+  </si>
+  <si>
+    <t>pc1019</t>
+  </si>
+  <si>
+    <t>pc1024</t>
+  </si>
+  <si>
+    <t>pc1002</t>
+  </si>
+  <si>
+    <t>pc1003</t>
+  </si>
+  <si>
+    <t>pc1004</t>
+  </si>
+  <si>
+    <t>pc1006</t>
+  </si>
+  <si>
+    <t>pc1007</t>
+  </si>
+  <si>
+    <t>pc1010</t>
+  </si>
+  <si>
+    <t>pc1011</t>
+  </si>
+  <si>
+    <t>pc1013</t>
+  </si>
+  <si>
+    <t>pc1014</t>
+  </si>
+  <si>
+    <t>pc1015</t>
+  </si>
+  <si>
+    <t>pc1017</t>
+  </si>
+  <si>
+    <t>pc1020</t>
+  </si>
+  <si>
+    <t>pc1021</t>
+  </si>
+  <si>
+    <t>pc1022</t>
+  </si>
+  <si>
+    <t>pc1023</t>
+  </si>
+  <si>
+    <t>pc1025</t>
+  </si>
+  <si>
+    <t>pc1026</t>
+  </si>
+  <si>
+    <t>pc1027</t>
+  </si>
+  <si>
+    <t>pc1028</t>
+  </si>
+  <si>
+    <t>pc1029</t>
+  </si>
+  <si>
+    <t>pc1030</t>
+  </si>
+  <si>
+    <t>ts3d</t>
+  </si>
+  <si>
+    <t>ts1001</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,12 +1565,13 @@
     <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="74.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="50.28515625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="54.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
@@ -1485,7 +1579,7 @@
         <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>128</v>
@@ -1530,10 +1624,13 @@
         <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43719</v>
       </c>
@@ -1541,13 +1638,13 @@
         <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1577,13 +1674,16 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43720</v>
       </c>
@@ -1591,13 +1691,13 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1630,13 +1730,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43721</v>
       </c>
@@ -1644,13 +1747,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -1683,13 +1786,16 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43722</v>
       </c>
@@ -1697,13 +1803,13 @@
         <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
@@ -1736,13 +1842,16 @@
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43723</v>
       </c>
@@ -1750,13 +1859,13 @@
         <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
@@ -1789,13 +1898,16 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43724</v>
       </c>
@@ -1803,13 +1915,13 @@
         <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -1839,13 +1951,16 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43725</v>
       </c>
@@ -1853,13 +1968,13 @@
         <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>41</v>
@@ -1889,13 +2004,16 @@
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43726</v>
       </c>
@@ -1903,13 +2021,13 @@
         <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -1939,13 +2057,16 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43727</v>
       </c>
@@ -1953,13 +2074,13 @@
         <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
@@ -1992,13 +2113,16 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43728</v>
       </c>
@@ -2006,13 +2130,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -2045,13 +2169,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43729</v>
       </c>
@@ -2059,13 +2186,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
@@ -2098,13 +2225,16 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43730</v>
       </c>
@@ -2112,13 +2242,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>30</v>
@@ -2151,13 +2281,16 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43731</v>
       </c>
@@ -2165,13 +2298,13 @@
         <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>35</v>
@@ -2201,13 +2334,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43732</v>
       </c>
@@ -2215,13 +2351,13 @@
         <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
@@ -2251,13 +2387,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43732</v>
       </c>
@@ -2265,13 +2404,13 @@
         <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>45</v>
@@ -2304,13 +2443,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43732</v>
       </c>
@@ -2318,13 +2460,13 @@
         <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
@@ -2360,13 +2502,16 @@
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43732</v>
       </c>
@@ -2374,13 +2519,13 @@
         <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>57</v>
@@ -2413,13 +2558,16 @@
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43732</v>
       </c>
@@ -2427,13 +2575,13 @@
         <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>61</v>
@@ -2466,13 +2614,16 @@
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43732</v>
       </c>
@@ -2480,13 +2631,13 @@
         <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>65</v>
@@ -2519,13 +2670,16 @@
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43732</v>
       </c>
@@ -2533,13 +2687,13 @@
         <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>69</v>
@@ -2572,13 +2726,16 @@
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43732</v>
       </c>
@@ -2586,13 +2743,13 @@
         <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>74</v>
@@ -2625,13 +2782,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43732</v>
       </c>
@@ -2639,13 +2799,13 @@
         <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>79</v>
@@ -2678,13 +2838,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43732</v>
       </c>
@@ -2692,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>84</v>
@@ -2734,13 +2897,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43732</v>
       </c>
@@ -2748,13 +2914,13 @@
         <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>90</v>
@@ -2784,13 +2950,16 @@
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43733</v>
       </c>
@@ -2798,13 +2967,13 @@
         <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>95</v>
@@ -2840,13 +3009,16 @@
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43733</v>
       </c>
@@ -2854,13 +3026,13 @@
         <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>100</v>
@@ -2893,13 +3065,16 @@
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43733</v>
       </c>
@@ -2907,13 +3082,13 @@
         <v>125</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>103</v>
@@ -2946,13 +3121,16 @@
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43733</v>
       </c>
@@ -2960,13 +3138,13 @@
         <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>108</v>
@@ -2999,13 +3177,16 @@
         <v>1</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43733</v>
       </c>
@@ -3013,13 +3194,13 @@
         <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>112</v>
@@ -3052,13 +3233,16 @@
         <v>1</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43733</v>
       </c>
@@ -3066,13 +3250,13 @@
         <v>125</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>116</v>
@@ -3105,10 +3289,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
